--- a/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>POWATT</t>
+  </si>
+  <si>
+    <t>ECON</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,6 +703,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
+++ b/fhir/core/CodeSystem-role-code-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
